--- a/processos.xlsx
+++ b/processos.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D433AD0E-6095-492A-9D21-C6382B12C602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victoria.santos\Projetos\BI_PPGC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C398E7-D519-4194-854E-F9F06312E362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -78,9 +83,6 @@
     <t>Em Andamento</t>
   </si>
   <si>
-    <t>criação das IT's</t>
-  </si>
-  <si>
     <t>Processo de Administrativo de Vendas</t>
   </si>
   <si>
@@ -111,18 +113,9 @@
     <t>Processo de Coordenadoria de Peças</t>
   </si>
   <si>
-    <t>reestruturação do processo</t>
-  </si>
-  <si>
     <t>Soluções e Serviços</t>
   </si>
   <si>
-    <t>parado</t>
-  </si>
-  <si>
-    <t>entrevista</t>
-  </si>
-  <si>
     <t>Conectividade</t>
   </si>
   <si>
@@ -138,9 +131,6 @@
     <t>Victória</t>
   </si>
   <si>
-    <t>Validação das IT's</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contas a receber </t>
   </si>
   <si>
@@ -154,13 +144,28 @@
   </si>
   <si>
     <t>João Tiago/ Victória</t>
+  </si>
+  <si>
+    <t>Criação de IT's</t>
+  </si>
+  <si>
+    <t>Reestruturação do processo</t>
+  </si>
+  <si>
+    <t>Entrevista</t>
+  </si>
+  <si>
+    <t>Validação IT's</t>
+  </si>
+  <si>
+    <t>Parado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +186,14 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,16 +216,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,26 +563,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -641,15 +655,15 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -679,15 +693,15 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -717,15 +731,15 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.2000000000000002</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -752,18 +766,18 @@
         <v>100</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.2999999999999998</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -790,18 +804,18 @@
         <v>100</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.4</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -821,7 +835,7 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J7">
@@ -831,15 +845,15 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.5</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -869,15 +883,15 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -907,15 +921,15 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>17</v>
@@ -942,18 +956,18 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.1</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -980,18 +994,18 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1018,18 +1032,18 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5.0999999999999996</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1050,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J13">
         <v>30</v>
@@ -1059,15 +1073,15 @@
         <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5.2</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -1088,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J14">
         <v>30</v>
@@ -1097,15 +1111,15 @@
         <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5.3</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1126,24 +1140,24 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.4</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -1164,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1172,16 +1186,16 @@
       <c r="K16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="L16" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.5</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1202,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J17">
         <v>10</v>
@@ -1211,7 +1225,7 @@
         <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
